--- a/Kode/Server2/Logs/lora_node1/2020-05-21.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-21.xlsx
@@ -403,7 +403,7 @@
         <v>112.29</v>
       </c>
       <c r="F2" t="n">
-        <v>251.08044</v>
+        <v>251080.44</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>108.18</v>
       </c>
       <c r="F3" t="n">
-        <v>241.45776</v>
+        <v>241457.76</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>103.77</v>
       </c>
       <c r="F4" t="n">
-        <v>231.61464</v>
+        <v>231614.64</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>98.00999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>218.36628</v>
+        <v>218366.28</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>96.84</v>
       </c>
       <c r="F6" t="n">
-        <v>215.37216</v>
+        <v>215372.16</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>89.06999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>197.7354</v>
+        <v>197735.4</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>89.19</v>
       </c>
       <c r="F8" t="n">
-        <v>198.35856</v>
+        <v>198358.56</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>82.935</v>
       </c>
       <c r="F9" t="n">
-        <v>183.45222</v>
+        <v>183452.22</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>79.425</v>
       </c>
       <c r="F10" t="n">
-        <v>176.9589</v>
+        <v>176958.9</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>77.48999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>171.71784</v>
+        <v>171717.84</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>77.84999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>172.5156</v>
+        <v>172515.6</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>80.145</v>
       </c>
       <c r="F13" t="n">
-        <v>177.28074</v>
+        <v>177280.74</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>78.55499999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>174.07788</v>
+        <v>174077.88</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>79.2</v>
       </c>
       <c r="F15" t="n">
-        <v>175.1904</v>
+        <v>175190.4</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>85.60499999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>189.35826</v>
+        <v>189358.26</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>84.435</v>
       </c>
       <c r="F17" t="n">
-        <v>187.78344</v>
+        <v>187783.44</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>88.08</v>
       </c>
       <c r="F18" t="n">
-        <v>195.18528</v>
+        <v>195185.28</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>89.02499999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>197.6355</v>
+        <v>197635.5</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>90.255</v>
       </c>
       <c r="F20" t="n">
-        <v>200.72712</v>
+        <v>200727.12</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>89.97</v>
       </c>
       <c r="F21" t="n">
-        <v>199.7334</v>
+        <v>199733.4</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>86.52</v>
       </c>
       <c r="F22" t="n">
-        <v>192.42048</v>
+        <v>192420.48</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>87.81</v>
       </c>
       <c r="F23" t="n">
-        <v>195.64068</v>
+        <v>195640.68</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>83.205</v>
       </c>
       <c r="F24" t="n">
-        <v>184.7151</v>
+        <v>184715.1</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>76.935</v>
       </c>
       <c r="F25" t="n">
-        <v>171.41118</v>
+        <v>171411.18</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>69.345</v>
       </c>
       <c r="F26" t="n">
-        <v>153.11376</v>
+        <v>153113.76</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>66.705</v>
       </c>
       <c r="F27" t="n">
-        <v>147.28464</v>
+        <v>147284.64</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>64.05</v>
       </c>
       <c r="F28" t="n">
-        <v>141.4224</v>
+        <v>141422.4</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>64.59</v>
       </c>
       <c r="F29" t="n">
-        <v>142.35636</v>
+        <v>142356.36</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>65.11499999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>143.51346</v>
+        <v>143513.46</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>72.09</v>
       </c>
       <c r="F31" t="n">
-        <v>160.0398</v>
+        <v>160039.8</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>72.58499999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>160.55802</v>
+        <v>160558.02</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>68.39999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>150.7536</v>
+        <v>150753.6</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>68.175</v>
       </c>
       <c r="F34" t="n">
-        <v>149.985</v>
+        <v>149985</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>68.16</v>
       </c>
       <c r="F35" t="n">
-        <v>150.76992</v>
+        <v>150769.92</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>64.185</v>
       </c>
       <c r="F36" t="n">
-        <v>142.23396</v>
+        <v>142233.96</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>66.63</v>
       </c>
       <c r="F37" t="n">
-        <v>146.85252</v>
+        <v>146852.52</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>75.72</v>
       </c>
       <c r="F38" t="n">
-        <v>167.18976</v>
+        <v>167189.76</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>69.78</v>
       </c>
       <c r="F39" t="n">
-        <v>154.63248</v>
+        <v>154632.48</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>69.03</v>
       </c>
       <c r="F40" t="n">
-        <v>153.2466</v>
+        <v>153246.6</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>65.745</v>
       </c>
       <c r="F41" t="n">
-        <v>144.90198</v>
+        <v>144901.98</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>62.055</v>
       </c>
       <c r="F42" t="n">
-        <v>136.27278</v>
+        <v>136272.78</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>63.72</v>
       </c>
       <c r="F43" t="n">
-        <v>140.184</v>
+        <v>140184</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>71.22</v>
       </c>
       <c r="F44" t="n">
-        <v>157.53864</v>
+        <v>157538.64</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>67.095</v>
       </c>
       <c r="F45" t="n">
-        <v>147.609</v>
+        <v>147609</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>143.22</v>
+        <v>143220</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>65.11499999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>144.03438</v>
+        <v>144034.38</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>66.22499999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>145.695</v>
+        <v>145695</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>67.125</v>
       </c>
       <c r="F49" t="n">
-        <v>148.212</v>
+        <v>148212</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>74.7</v>
       </c>
       <c r="F50" t="n">
-        <v>165.834</v>
+        <v>165834</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>114.855</v>
       </c>
       <c r="F51" t="n">
-        <v>256.81578</v>
+        <v>256815.78</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>108.195</v>
       </c>
       <c r="F52" t="n">
-        <v>241.92402</v>
+        <v>241924.02</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>75.92999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>167.65344</v>
+        <v>167653.44</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>78.94499999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>174.62634</v>
+        <v>174626.34</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>72.39</v>
       </c>
       <c r="F55" t="n">
-        <v>159.54756</v>
+        <v>159547.56</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>78.045</v>
       </c>
       <c r="F56" t="n">
-        <v>172.63554</v>
+        <v>172635.54</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>70.185</v>
       </c>
       <c r="F57" t="n">
-        <v>154.68774</v>
+        <v>154687.74</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>86.595</v>
       </c>
       <c r="F58" t="n">
-        <v>192.2409</v>
+        <v>192240.9</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>103.62</v>
       </c>
       <c r="F59" t="n">
-        <v>231.27984</v>
+        <v>231279.84</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>114.225</v>
       </c>
       <c r="F60" t="n">
-        <v>255.4071</v>
+        <v>255407.1</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>114.195</v>
       </c>
       <c r="F61" t="n">
-        <v>255.7968</v>
+        <v>255796.8</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>111.93</v>
       </c>
       <c r="F62" t="n">
-        <v>250.27548</v>
+        <v>250275.48</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>114.03</v>
       </c>
       <c r="F63" t="n">
-        <v>254.51496</v>
+        <v>254514.96</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>112.47</v>
       </c>
       <c r="F64" t="n">
-        <v>251.48292</v>
+        <v>251482.92</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>103.965</v>
       </c>
       <c r="F65" t="n">
-        <v>231.63402</v>
+        <v>231634.02</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>101.775</v>
       </c>
       <c r="F66" t="n">
-        <v>226.7547</v>
+        <v>226754.7</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>98.235</v>
       </c>
       <c r="F67" t="n">
-        <v>218.86758</v>
+        <v>218867.58</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>96.49499999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>214.60488</v>
+        <v>214604.88</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>84.645</v>
       </c>
       <c r="F69" t="n">
-        <v>187.9119</v>
+        <v>187911.9</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>75.825</v>
       </c>
       <c r="F70" t="n">
-        <v>167.1183</v>
+        <v>167118.3</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>99.69</v>
       </c>
       <c r="F71" t="n">
-        <v>222.50808</v>
+        <v>222508.08</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>100.755</v>
       </c>
       <c r="F72" t="n">
-        <v>224.07912</v>
+        <v>224079.12</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>95.94</v>
       </c>
       <c r="F73" t="n">
-        <v>213.37056</v>
+        <v>213370.56</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>88.5</v>
       </c>
       <c r="F74" t="n">
-        <v>196.47</v>
+        <v>196470</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>74.06999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>163.54656</v>
+        <v>163546.56</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>89.19</v>
       </c>
       <c r="F76" t="n">
-        <v>197.64504</v>
+        <v>197645.04</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>65.45999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>124.89768</v>
+        <v>124897.68</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>143.4804</v>
+        <v>143480.4</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>73.95</v>
       </c>
       <c r="F79" t="n">
-        <v>162.9858</v>
+        <v>162985.8</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>85.72499999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>190.3095</v>
+        <v>190309.5</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>56.205</v>
       </c>
       <c r="F81" t="n">
-        <v>124.10064</v>
+        <v>124100.64</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>143.7408</v>
+        <v>143740.8</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>68.61</v>
       </c>
       <c r="F83" t="n">
-        <v>152.03976</v>
+        <v>152039.76</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>65.86499999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>145.95684</v>
+        <v>145956.84</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>83.715</v>
       </c>
       <c r="F85" t="n">
-        <v>185.8473</v>
+        <v>185847.3</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>99.50999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>221.31024</v>
+        <v>221310.24</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>94.935</v>
       </c>
       <c r="F87" t="n">
-        <v>210.37596</v>
+        <v>210375.96</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>65.175</v>
       </c>
       <c r="F88" t="n">
-        <v>143.1243</v>
+        <v>143124.3</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>96.92999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>215.57232</v>
+        <v>215572.32</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>65.31</v>
       </c>
       <c r="F90" t="n">
-        <v>144.20448</v>
+        <v>144204.48</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>76.66499999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>169.58298</v>
+        <v>169582.98</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>58.65</v>
       </c>
       <c r="F92" t="n">
-        <v>129.2646</v>
+        <v>129264.6</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>68.52</v>
       </c>
       <c r="F93" t="n">
-        <v>151.01808</v>
+        <v>151018.08</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>77.02499999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>170.3793</v>
+        <v>170379.3</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>78.255</v>
       </c>
       <c r="F95" t="n">
-        <v>173.10006</v>
+        <v>173100.06</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>74.34</v>
       </c>
       <c r="F96" t="n">
-        <v>163.84536</v>
+        <v>163845.36</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>73.17</v>
       </c>
       <c r="F97" t="n">
-        <v>162.14472</v>
+        <v>162144.72</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>69.81</v>
       </c>
       <c r="F98" t="n">
-        <v>153.86124</v>
+        <v>153861.24</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>59.47499999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>131.3208</v>
+        <v>131320.8</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>73.56</v>
       </c>
       <c r="F100" t="n">
-        <v>162.42048</v>
+        <v>162420.48</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>67.995</v>
       </c>
       <c r="F101" t="n">
-        <v>149.86098</v>
+        <v>149860.98</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>68.38499999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>151.26762</v>
+        <v>151267.62</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>75.63</v>
       </c>
       <c r="F103" t="n">
-        <v>166.99104</v>
+        <v>166991.04</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>76.005</v>
       </c>
       <c r="F104" t="n">
-        <v>169.03512</v>
+        <v>169035.12</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>82.34999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>182.4876</v>
+        <v>182487.6</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>80.985</v>
       </c>
       <c r="F106" t="n">
-        <v>179.46276</v>
+        <v>179462.76</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>70.5</v>
       </c>
       <c r="F107" t="n">
-        <v>156.228</v>
+        <v>156228</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>64.125</v>
       </c>
       <c r="F108" t="n">
-        <v>141.3315</v>
+        <v>141331.5</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>67.005</v>
       </c>
       <c r="F109" t="n">
-        <v>148.21506</v>
+        <v>148215.06</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>60.105</v>
       </c>
       <c r="F110" t="n">
-        <v>132.47142</v>
+        <v>132471.42</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>64.70999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>142.87968</v>
+        <v>142879.68</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>22.53</v>
       </c>
       <c r="F112" t="n">
-        <v>18.024</v>
+        <v>18024</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>63.375</v>
       </c>
       <c r="F113" t="n">
-        <v>139.1715</v>
+        <v>139171.5</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>150.3648</v>
+        <v>150364.8</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>71.355</v>
       </c>
       <c r="F115" t="n">
-        <v>156.981</v>
+        <v>156981</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>65.745</v>
       </c>
       <c r="F116" t="n">
-        <v>144.90198</v>
+        <v>144901.98</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>64.935</v>
       </c>
       <c r="F117" t="n">
-        <v>143.37648</v>
+        <v>143376.48</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>141.24672</v>
+        <v>141246.72</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>69.95999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>154.47168</v>
+        <v>154471.68</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>71.64</v>
       </c>
       <c r="F120" t="n">
-        <v>159.0408</v>
+        <v>159040.8</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>68.48999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1520478</v>
+        <v>152.0478</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>71.655</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1590741</v>
+        <v>159.0741</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>74.61</v>
       </c>
       <c r="F123" t="n">
-        <v>0.16473888</v>
+        <v>164.73888</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>77.22</v>
       </c>
       <c r="F124" t="n">
-        <v>0.17081064</v>
+        <v>170.81064</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>71.205</v>
       </c>
       <c r="F125" t="n">
-        <v>0.15693582</v>
+        <v>156.93582</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>75.58499999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.16749636</v>
+        <v>167.49636</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>69.50999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.152922</v>
+        <v>152.922</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>63.405</v>
       </c>
       <c r="F128" t="n">
-        <v>0.14025186</v>
+        <v>140.25186</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>66.97499999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1476129</v>
+        <v>147.6129</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>66.075</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1461579</v>
+        <v>146.1579</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>82.785</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1837827</v>
+        <v>183.7827</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>77.06999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>0.17017056</v>
+        <v>170.17056</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>74.925</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1657341</v>
+        <v>165.7341</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>75.015</v>
       </c>
       <c r="F134" t="n">
-        <v>0.16563312</v>
+        <v>165.63312</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>71.41499999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.15739866</v>
+        <v>157.39866</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>71.34</v>
       </c>
       <c r="F136" t="n">
-        <v>0.15751872</v>
+        <v>157.51872</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>71.73</v>
       </c>
       <c r="F137" t="n">
-        <v>0.15895368</v>
+        <v>158.95368</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>69.345</v>
       </c>
       <c r="F138" t="n">
-        <v>0.15339114</v>
+        <v>153.39114</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>72.405</v>
       </c>
       <c r="F139" t="n">
-        <v>0.16044948</v>
+        <v>160.44948</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>60.675</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1337277</v>
+        <v>133.7277</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>68.38499999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>0.15099408</v>
+        <v>150.99408</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>68.02499999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1504713</v>
+        <v>150.4713</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>59.745</v>
       </c>
       <c r="F143" t="n">
-        <v>0.131439</v>
+        <v>131.439</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>51.33</v>
       </c>
       <c r="F144" t="n">
-        <v>0.112926</v>
+        <v>112.926</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>54.135</v>
       </c>
       <c r="F145" t="n">
-        <v>0.119097</v>
+        <v>119.097</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>61.32</v>
       </c>
       <c r="F146" t="n">
-        <v>0.13539456</v>
+        <v>135.39456</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>55.16999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>0.12159468</v>
+        <v>121.59468</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>58.455</v>
       </c>
       <c r="F148" t="n">
-        <v>0.12813336</v>
+        <v>128.13336</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>55.77</v>
       </c>
       <c r="F149" t="n">
-        <v>0.12291708</v>
+        <v>122.91708</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>52.215</v>
       </c>
       <c r="F150" t="n">
-        <v>0.11466414</v>
+        <v>114.66414</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>48.06</v>
       </c>
       <c r="F151" t="n">
-        <v>0.10553976</v>
+        <v>105.53976</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>44.7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0979824</v>
+        <v>97.9824</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>42.105</v>
       </c>
       <c r="F153" t="n">
-        <v>0.09229416</v>
+        <v>92.29416000000001</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>39.345</v>
       </c>
       <c r="F154" t="n">
-        <v>0.08671638</v>
+        <v>86.71638</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>42.57</v>
       </c>
       <c r="F155" t="n">
-        <v>0.09331344000000001</v>
+        <v>93.31344000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>38.58</v>
       </c>
       <c r="F156" t="n">
-        <v>0.08441304000000001</v>
+        <v>84.41304000000001</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>36.795</v>
       </c>
       <c r="F157" t="n">
-        <v>0.08036028000000001</v>
+        <v>80.36028</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>35.34</v>
       </c>
       <c r="F158" t="n">
-        <v>0.07718256</v>
+        <v>77.18256</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>34.59</v>
       </c>
       <c r="F159" t="n">
-        <v>0.07582128</v>
+        <v>75.82128</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>33.675</v>
       </c>
       <c r="F160" t="n">
-        <v>0.07368089999999999</v>
+        <v>73.68089999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>31.95</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0692676</v>
+        <v>69.2676</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>30.045</v>
       </c>
       <c r="F162" t="n">
-        <v>0.06573846</v>
+        <v>65.73846</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>29.565</v>
       </c>
       <c r="F163" t="n">
-        <v>0.06433343999999999</v>
+        <v>64.33344</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>30.69</v>
       </c>
       <c r="F164" t="n">
-        <v>0.06739524</v>
+        <v>67.39524</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>29.865</v>
       </c>
       <c r="F165" t="n">
-        <v>0.06522516</v>
+        <v>65.22516</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>30.51</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06724404</v>
+        <v>67.24404</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>30.75</v>
       </c>
       <c r="F167" t="n">
-        <v>0.066543</v>
+        <v>66.54300000000001</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>30.405</v>
       </c>
       <c r="F168" t="n">
-        <v>0.06652614</v>
+        <v>66.52614</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>29.325</v>
       </c>
       <c r="F169" t="n">
-        <v>0.064515</v>
+        <v>64.515</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>28.14</v>
       </c>
       <c r="F170" t="n">
-        <v>0.06112008000000001</v>
+        <v>61.12008000000001</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>27.48</v>
       </c>
       <c r="F171" t="n">
-        <v>0.06001632</v>
+        <v>60.01632</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>26.865</v>
       </c>
       <c r="F172" t="n">
-        <v>0.05867316</v>
+        <v>58.67316</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>26.7</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0585264</v>
+        <v>58.5264</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>26.475</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0572919</v>
+        <v>57.2919</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>26.55</v>
       </c>
       <c r="F175" t="n">
-        <v>0.05809140000000001</v>
+        <v>58.09140000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>26.595</v>
       </c>
       <c r="F176" t="n">
-        <v>0.05765796</v>
+        <v>57.65796</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>26.55</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05787900000000001</v>
+        <v>57.879</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>26.43</v>
       </c>
       <c r="F178" t="n">
-        <v>0.05825172000000001</v>
+        <v>58.25172000000001</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>26.34</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05731584</v>
+        <v>57.31584</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>26.145</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05678694</v>
+        <v>56.78694</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>25.38</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05512536</v>
+        <v>55.12536</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>24.705</v>
       </c>
       <c r="F182" t="n">
-        <v>0.05395572</v>
+        <v>53.95572</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>24.72</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0548784</v>
+        <v>54.8784</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>24.33</v>
       </c>
       <c r="F184" t="n">
-        <v>0.05362332</v>
+        <v>53.62332</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>24.54</v>
       </c>
       <c r="F185" t="n">
-        <v>0.05369352</v>
+        <v>53.69352</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>24.45</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0534966</v>
+        <v>53.4966</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>24.165</v>
       </c>
       <c r="F187" t="n">
-        <v>0.05229306</v>
+        <v>52.29306</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>23.7</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0517608</v>
+        <v>51.7608</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>23.115</v>
       </c>
       <c r="F189" t="n">
-        <v>0.05020578</v>
+        <v>50.20578</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>22.74</v>
       </c>
       <c r="F190" t="n">
-        <v>0.04966416000000001</v>
+        <v>49.66416000000001</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>22.725</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0494496</v>
+        <v>49.4496</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>22.695</v>
       </c>
       <c r="F192" t="n">
-        <v>0.04947510000000001</v>
+        <v>49.4751</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>22.53</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04920552</v>
+        <v>49.20552</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>22.395</v>
       </c>
       <c r="F194" t="n">
-        <v>0.04837320000000001</v>
+        <v>48.37320000000001</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>22.275</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0482922</v>
+        <v>48.2922</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>22.215</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04869528</v>
+        <v>48.69528</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>22.02</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0475632</v>
+        <v>47.5632</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>22.035</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0475956</v>
+        <v>47.5956</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>21.99</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0479382</v>
+        <v>47.9382</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>22.275</v>
       </c>
       <c r="F200" t="n">
-        <v>0.048114</v>
+        <v>48.114</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>22.605</v>
       </c>
       <c r="F201" t="n">
-        <v>0.04991184000000001</v>
+        <v>49.91184000000001</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>22.98</v>
       </c>
       <c r="F202" t="n">
-        <v>0.04982064000000001</v>
+        <v>49.82064000000001</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>23.115</v>
       </c>
       <c r="F203" t="n">
-        <v>0.05057562</v>
+        <v>50.57562</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>23.145</v>
       </c>
       <c r="F204" t="n">
-        <v>0.05054868000000001</v>
+        <v>50.54868000000001</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>23.085</v>
       </c>
       <c r="F205" t="n">
-        <v>0.05124870000000001</v>
+        <v>51.24870000000001</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>22.935</v>
       </c>
       <c r="F206" t="n">
-        <v>0.05018178</v>
+        <v>50.18178</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>22.77</v>
       </c>
       <c r="F207" t="n">
-        <v>0.04909212</v>
+        <v>49.09212</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>22.5</v>
       </c>
       <c r="F208" t="n">
-        <v>0.04887</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>22.11</v>
       </c>
       <c r="F209" t="n">
-        <v>0.04802292</v>
+        <v>48.02292</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>21.81</v>
       </c>
       <c r="F210" t="n">
-        <v>0.047982</v>
+        <v>47.982</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>21.3</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0462636</v>
+        <v>46.2636</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>21.015</v>
       </c>
       <c r="F212" t="n">
-        <v>0.04589676000000001</v>
+        <v>45.89676000000001</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>20.745</v>
       </c>
       <c r="F213" t="n">
-        <v>0.04580496000000001</v>
+        <v>45.80496000000002</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>20.7</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0452916</v>
+        <v>45.2916</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>20.73</v>
       </c>
       <c r="F215" t="n">
-        <v>0.04502556000000001</v>
+        <v>45.02556000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>20.85</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0455364</v>
+        <v>45.5364</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>20.85</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0457866</v>
+        <v>45.7866</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>20.715</v>
       </c>
       <c r="F218" t="n">
-        <v>0.04524156</v>
+        <v>45.24156</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>20.43</v>
       </c>
       <c r="F219" t="n">
-        <v>0.04486428</v>
+        <v>44.86428</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>20.205</v>
       </c>
       <c r="F220" t="n">
-        <v>0.04388526</v>
+        <v>43.88526</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>19.875</v>
       </c>
       <c r="F221" t="n">
-        <v>0.04300950000000001</v>
+        <v>43.00950000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>19.515</v>
       </c>
       <c r="F222" t="n">
-        <v>0.04285494000000001</v>
+        <v>42.85494000000001</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>19.155</v>
       </c>
       <c r="F223" t="n">
-        <v>0.04191114</v>
+        <v>41.91114</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>18.78</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04063992</v>
+        <v>40.63992</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>18.45</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0399996</v>
+        <v>39.9996</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>18.15</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0400026</v>
+        <v>40.0026</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>17.82</v>
       </c>
       <c r="F227" t="n">
-        <v>0.03906144</v>
+        <v>39.06144</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>17.475</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0386547</v>
+        <v>38.6547</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>17.115</v>
       </c>
       <c r="F229" t="n">
-        <v>0.03785838</v>
+        <v>37.85838</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>16.725</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0360591</v>
+        <v>36.05909999999999</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>16.35</v>
       </c>
       <c r="F231" t="n">
-        <v>0.03570839999999999</v>
+        <v>35.70839999999999</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>15.99</v>
       </c>
       <c r="F232" t="n">
-        <v>0.03530592</v>
+        <v>35.30592</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>15.735</v>
       </c>
       <c r="F233" t="n">
-        <v>0.03423936</v>
+        <v>34.23936</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>15.435</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0333396</v>
+        <v>33.3396</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>15.195</v>
       </c>
       <c r="F235" t="n">
-        <v>0.03324666</v>
+        <v>33.24666</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>14.925</v>
       </c>
       <c r="F236" t="n">
-        <v>0.032238</v>
+        <v>32.238</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>14.85</v>
       </c>
       <c r="F237" t="n">
-        <v>0.03237300000000001</v>
+        <v>32.37300000000001</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>14.85</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0321948</v>
+        <v>32.1948</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>14.82</v>
       </c>
       <c r="F239" t="n">
-        <v>0.03266328</v>
+        <v>32.66328</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>14.73</v>
       </c>
       <c r="F240" t="n">
-        <v>0.03281844</v>
+        <v>32.81844</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>14.61</v>
       </c>
       <c r="F241" t="n">
-        <v>0.03179136</v>
+        <v>31.79136</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>14.37</v>
       </c>
       <c r="F242" t="n">
-        <v>0.03172896</v>
+        <v>31.72896</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>14.19</v>
       </c>
       <c r="F243" t="n">
-        <v>0.03138828</v>
+        <v>31.38828</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>13.98</v>
       </c>
       <c r="F244" t="n">
-        <v>0.03008496</v>
+        <v>30.08496</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>13.8</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0299736</v>
+        <v>29.9736</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>13.5</v>
       </c>
       <c r="F246" t="n">
-        <v>0.029862</v>
+        <v>29.862</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>13.17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.02807844</v>
+        <v>28.07844</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>12.975</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0284931</v>
+        <v>28.4931</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>12.735</v>
       </c>
       <c r="F249" t="n">
-        <v>0.02755854</v>
+        <v>27.55854</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>12.54</v>
       </c>
       <c r="F250" t="n">
-        <v>0.02688576</v>
+        <v>26.88576</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>12.465</v>
       </c>
       <c r="F251" t="n">
-        <v>0.02712384</v>
+        <v>27.12384</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>12.39</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0277536</v>
+        <v>27.7536</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>12.375</v>
       </c>
       <c r="F253" t="n">
-        <v>0.027324</v>
+        <v>27.324</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>12.45</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0272904</v>
+        <v>27.2904</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>12.525</v>
       </c>
       <c r="F255" t="n">
-        <v>0.02685360000000001</v>
+        <v>26.85360000000001</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>12.525</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0275049</v>
+        <v>27.5049</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>12.51</v>
       </c>
       <c r="F257" t="n">
-        <v>0.02797236</v>
+        <v>27.97236</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>12.615</v>
       </c>
       <c r="F258" t="n">
-        <v>0.02765208</v>
+        <v>27.65208</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>12.72</v>
       </c>
       <c r="F259" t="n">
-        <v>0.02757696</v>
+        <v>27.57696</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>12.885</v>
       </c>
       <c r="F260" t="n">
-        <v>0.02798622</v>
+        <v>27.98622</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>13.05</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0283446</v>
+        <v>28.3446</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>13.155</v>
       </c>
       <c r="F262" t="n">
-        <v>0.02909886</v>
+        <v>29.09886</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>13.26</v>
       </c>
       <c r="F263" t="n">
-        <v>0.02933112</v>
+        <v>29.33112</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>13.35</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0289962</v>
+        <v>28.9962</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>13.425</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0296961</v>
+        <v>29.6961</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>13.56</v>
       </c>
       <c r="F266" t="n">
-        <v>0.02977776</v>
+        <v>29.77776</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>13.65</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0294294</v>
+        <v>29.4294</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>13.815</v>
       </c>
       <c r="F268" t="n">
-        <v>0.03028248</v>
+        <v>30.28248</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>13.92</v>
       </c>
       <c r="F269" t="n">
-        <v>0.03023424</v>
+        <v>30.23424</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>14.085</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03031092</v>
+        <v>30.31092</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>14.235</v>
       </c>
       <c r="F271" t="n">
-        <v>0.03091842</v>
+        <v>30.91842</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>14.295</v>
       </c>
       <c r="F272" t="n">
-        <v>0.03127746</v>
+        <v>31.27746</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>14.295</v>
       </c>
       <c r="F273" t="n">
-        <v>0.03099156</v>
+        <v>30.99156</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>14.43</v>
       </c>
       <c r="F274" t="n">
-        <v>0.03105336</v>
+        <v>31.05336</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>14.46</v>
       </c>
       <c r="F275" t="n">
-        <v>0.03146496</v>
+        <v>31.46496</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>14.475</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0313239</v>
+        <v>31.3239</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>14.52</v>
       </c>
       <c r="F277" t="n">
-        <v>0.03159552</v>
+        <v>31.59552</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>14.595</v>
       </c>
       <c r="F278" t="n">
-        <v>0.032109</v>
+        <v>32.109</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>14.7</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0316932</v>
+        <v>31.6932</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>14.805</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0322749</v>
+        <v>32.2749</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>14.88</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0318432</v>
+        <v>31.8432</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>14.94</v>
       </c>
       <c r="F282" t="n">
-        <v>0.03268872</v>
+        <v>32.68872</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>15.03</v>
       </c>
       <c r="F283" t="n">
-        <v>0.03288564</v>
+        <v>32.88564</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>15.18</v>
       </c>
       <c r="F284" t="n">
-        <v>0.03315312</v>
+        <v>33.15312</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>15.315</v>
       </c>
       <c r="F285" t="n">
-        <v>0.03301914</v>
+        <v>33.01914</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>15.48</v>
       </c>
       <c r="F286" t="n">
-        <v>0.03306528</v>
+        <v>33.06528</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>15.6</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0338208</v>
+        <v>33.8208</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>15.63</v>
       </c>
       <c r="F288" t="n">
-        <v>0.03426096</v>
+        <v>34.26096</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>15.69</v>
       </c>
       <c r="F289" t="n">
-        <v>0.03445524000000001</v>
+        <v>34.45524000000001</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>15.735</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0343023</v>
+        <v>34.3023</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>15.645</v>
       </c>
       <c r="F291" t="n">
-        <v>0.03366804</v>
+        <v>33.66804</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>15.585</v>
       </c>
       <c r="F292" t="n">
-        <v>0.03409998</v>
+        <v>34.09998</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>15.435</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0330309</v>
+        <v>33.0309</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>15.3</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0332928</v>
+        <v>33.2928</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>15.12</v>
       </c>
       <c r="F295" t="n">
-        <v>0.03338496</v>
+        <v>33.38496</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>14.985</v>
       </c>
       <c r="F296" t="n">
-        <v>0.03254742</v>
+        <v>32.54742</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>14.79</v>
       </c>
       <c r="F297" t="n">
-        <v>0.03247883999999999</v>
+        <v>32.47883999999999</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>14.46</v>
       </c>
       <c r="F298" t="n">
-        <v>0.03134928</v>
+        <v>31.34928</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>14.115</v>
       </c>
       <c r="F299" t="n">
-        <v>0.031053</v>
+        <v>31.053</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>13.755</v>
       </c>
       <c r="F300" t="n">
-        <v>0.02960076</v>
+        <v>29.60076</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>13.395</v>
       </c>
       <c r="F301" t="n">
-        <v>0.02877246</v>
+        <v>28.77246</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>13.05</v>
       </c>
       <c r="F302" t="n">
-        <v>0.028449</v>
+        <v>28.449</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>12.72</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02762784</v>
+        <v>27.62784</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>12.495</v>
       </c>
       <c r="F304" t="n">
-        <v>0.02713914</v>
+        <v>27.13914</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>12.33</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0263862</v>
+        <v>26.3862</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>12.195</v>
       </c>
       <c r="F306" t="n">
-        <v>0.02614608</v>
+        <v>26.14608</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>12.06</v>
       </c>
       <c r="F307" t="n">
-        <v>0.02667672</v>
+        <v>26.67672</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>11.94</v>
       </c>
       <c r="F308" t="n">
-        <v>0.02574264</v>
+        <v>25.74264</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>11.805</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02564046</v>
+        <v>25.64046</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>11.715</v>
       </c>
       <c r="F310" t="n">
-        <v>0.02535126</v>
+        <v>25.35126</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>11.715</v>
       </c>
       <c r="F311" t="n">
-        <v>0.02549184</v>
+        <v>25.49184</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>11.67</v>
       </c>
       <c r="F312" t="n">
-        <v>0.02553396</v>
+        <v>25.53396</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>11.67</v>
       </c>
       <c r="F313" t="n">
-        <v>0.02576736</v>
+        <v>25.76736</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>11.745</v>
       </c>
       <c r="F314" t="n">
-        <v>0.02565108</v>
+        <v>25.65108</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>11.79</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0257022</v>
+        <v>25.7022</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>11.835</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0262737</v>
+        <v>26.2737</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>11.865</v>
       </c>
       <c r="F317" t="n">
-        <v>0.02600808</v>
+        <v>26.00808</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>11.925</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0265212</v>
+        <v>26.5212</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>11.985</v>
       </c>
       <c r="F319" t="n">
-        <v>0.02598348</v>
+        <v>25.98348</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>12</v>
       </c>
       <c r="F320" t="n">
-        <v>0.026352</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>11.985</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02646288</v>
+        <v>26.46288</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>11.94</v>
       </c>
       <c r="F322" t="n">
-        <v>0.0257904</v>
+        <v>25.7904</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>11.88</v>
       </c>
       <c r="F323" t="n">
-        <v>0.02570832</v>
+        <v>25.70832</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>11.79</v>
       </c>
       <c r="F324" t="n">
-        <v>0.02574936</v>
+        <v>25.74936</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>11.76</v>
       </c>
       <c r="F325" t="n">
-        <v>0.02521344</v>
+        <v>25.21344</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>11.61</v>
       </c>
       <c r="F326" t="n">
-        <v>0.025542</v>
+        <v>25.542</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>11.535</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0251463</v>
+        <v>25.1463</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>11.37</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02515044</v>
+        <v>25.15044</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>11.295</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02399058</v>
+        <v>23.99058</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>11.205</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0248751</v>
+        <v>24.8751</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>11.145</v>
       </c>
       <c r="F331" t="n">
-        <v>0.02420694</v>
+        <v>24.20694</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>11.055</v>
       </c>
       <c r="F332" t="n">
-        <v>0.02449788</v>
+        <v>24.49788</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>11.025</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0240345</v>
+        <v>24.0345</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>10.95</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0240462</v>
+        <v>24.0462</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>10.86</v>
       </c>
       <c r="F335" t="n">
-        <v>0.02376168</v>
+        <v>23.76168</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>10.755</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02361798</v>
+        <v>23.61798</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>10.62</v>
       </c>
       <c r="F337" t="n">
-        <v>0.02276928</v>
+        <v>22.76928</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>10.455</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0227919</v>
+        <v>22.7919</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>10.32</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02196096</v>
+        <v>21.96096</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>10.095</v>
       </c>
       <c r="F340" t="n">
-        <v>0.022209</v>
+        <v>22.209</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>9.9</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0210276</v>
+        <v>21.0276</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>9.645</v>
       </c>
       <c r="F342" t="n">
-        <v>0.02106468</v>
+        <v>21.06468</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>9.42</v>
       </c>
       <c r="F343" t="n">
-        <v>0.02061096</v>
+        <v>20.61096</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>9.225</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0201843</v>
+        <v>20.1843</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>9.06</v>
       </c>
       <c r="F345" t="n">
-        <v>0.01971456</v>
+        <v>19.71456</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>8.895</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0192132</v>
+        <v>19.2132</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>8.805</v>
       </c>
       <c r="F347" t="n">
-        <v>0.01915968</v>
+        <v>19.15968</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>8.775</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0192348</v>
+        <v>19.2348</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>8.805</v>
       </c>
       <c r="F349" t="n">
-        <v>0.01880748</v>
+        <v>18.80748</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>8.834999999999999</v>
       </c>
       <c r="F350" t="n">
-        <v>0.01947234</v>
+        <v>19.47234</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>8.94</v>
       </c>
       <c r="F351" t="n">
-        <v>0.019668</v>
+        <v>19.668</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>8.984999999999999</v>
       </c>
       <c r="F352" t="n">
-        <v>0.01998264</v>
+        <v>19.98264</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>0.01944</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>8.895</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0193911</v>
+        <v>19.3911</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>8.654999999999999</v>
       </c>
       <c r="F355" t="n">
-        <v>0.01890252</v>
+        <v>18.90252</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>8.445</v>
       </c>
       <c r="F356" t="n">
-        <v>0.01820742</v>
+        <v>18.20742</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>8.19</v>
       </c>
       <c r="F357" t="n">
-        <v>0.01791972</v>
+        <v>17.91972</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>7.995</v>
       </c>
       <c r="F358" t="n">
-        <v>0.0174291</v>
+        <v>17.4291</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>7.845</v>
       </c>
       <c r="F359" t="n">
-        <v>0.01672554</v>
+        <v>16.72554</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>7.725</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0172113</v>
+        <v>17.2113</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>7.665</v>
       </c>
       <c r="F361" t="n">
-        <v>0.01637244</v>
+        <v>16.37244</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>7.59</v>
       </c>
       <c r="F362" t="n">
-        <v>0.01660692</v>
+        <v>16.60692</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>7.515</v>
       </c>
       <c r="F363" t="n">
-        <v>0.01647288</v>
+        <v>16.47288</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>7.44</v>
       </c>
       <c r="F364" t="n">
-        <v>0.01642752</v>
+        <v>16.42752</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>7.35</v>
       </c>
       <c r="F365" t="n">
-        <v>0.0162288</v>
+        <v>16.2288</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>7.335</v>
       </c>
       <c r="F366" t="n">
-        <v>0.01587294</v>
+        <v>15.87294</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F367" t="n">
-        <v>0.01584048</v>
+        <v>15.84048</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>7.29</v>
       </c>
       <c r="F368" t="n">
-        <v>0.0157464</v>
+        <v>15.7464</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>7.26</v>
       </c>
       <c r="F369" t="n">
-        <v>0.01585584</v>
+        <v>15.85584</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>7.29</v>
       </c>
       <c r="F370" t="n">
-        <v>0.01568808</v>
+        <v>15.68808</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>7.319999999999999</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0156648</v>
+        <v>15.6648</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>7.35</v>
       </c>
       <c r="F372" t="n">
-        <v>0.0159348</v>
+        <v>15.9348</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>7.38</v>
       </c>
       <c r="F373" t="n">
-        <v>0.01629504</v>
+        <v>16.29504</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>7.38</v>
       </c>
       <c r="F374" t="n">
-        <v>0.0160884</v>
+        <v>16.0884</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>7.335</v>
       </c>
       <c r="F375" t="n">
-        <v>0.01578492</v>
+        <v>15.78492</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>7.29</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01571724</v>
+        <v>15.71724</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>7.23</v>
       </c>
       <c r="F377" t="n">
-        <v>0.01553004</v>
+        <v>15.53004</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>7.125</v>
       </c>
       <c r="F378" t="n">
-        <v>0.015732</v>
+        <v>15.732</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>7.02</v>
       </c>
       <c r="F379" t="n">
-        <v>0.015444</v>
+        <v>15.444</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>6.93</v>
       </c>
       <c r="F380" t="n">
-        <v>0.0148302</v>
+        <v>14.8302</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>6.855</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01499874</v>
+        <v>14.99874</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>6.779999999999999</v>
       </c>
       <c r="F382" t="n">
-        <v>0.01448208</v>
+        <v>14.48208</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>6.75</v>
       </c>
       <c r="F383" t="n">
-        <v>0.014931</v>
+        <v>14.931</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>6.705</v>
       </c>
       <c r="F384" t="n">
-        <v>0.01440234</v>
+        <v>14.40234</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>6.645</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01432662</v>
+        <v>14.32662</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>6.63</v>
       </c>
       <c r="F386" t="n">
-        <v>0.01429428</v>
+        <v>14.29428</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>6.6</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0144408</v>
+        <v>14.4408</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>6.54</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0139956</v>
+        <v>13.9956</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>6.51</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01413972</v>
+        <v>14.13972</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>6.495</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01421106</v>
+        <v>14.21106</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>6.435</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01395108</v>
+        <v>13.95108</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>6.39</v>
       </c>
       <c r="F392" t="n">
-        <v>0.01382796</v>
+        <v>13.82796</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>6.345</v>
       </c>
       <c r="F393" t="n">
-        <v>0.0137052</v>
+        <v>13.7052</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>6.3</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0137844</v>
+        <v>13.7844</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>6.24</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01367808</v>
+        <v>13.67808</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>6.18</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0132252</v>
+        <v>13.2252</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>6.075</v>
       </c>
       <c r="F397" t="n">
-        <v>0.013365</v>
+        <v>13.365</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0129276</v>
+        <v>12.9276</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.835</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0127203</v>
+        <v>12.7203</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F400" t="n">
-        <v>0.01201122</v>
+        <v>12.01122</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>5.475</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0120012</v>
+        <v>12.0012</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>5.265</v>
       </c>
       <c r="F402" t="n">
-        <v>0.01183572</v>
+        <v>11.83572</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>5.085</v>
       </c>
       <c r="F403" t="n">
-        <v>0.0107802</v>
+        <v>10.7802</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>4.92</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01050912</v>
+        <v>10.50912</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>4.77</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01016964</v>
+        <v>10.16964</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F406" t="n">
-        <v>0.009988199999999999</v>
+        <v>9.988199999999999</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>4.56</v>
       </c>
       <c r="F407" t="n">
-        <v>0.00988608</v>
+        <v>9.88608</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F408" t="n">
-        <v>0.00983112</v>
+        <v>9.83112</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>4.38</v>
       </c>
       <c r="F409" t="n">
-        <v>0.009495840000000002</v>
+        <v>9.495840000000001</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>4.305</v>
       </c>
       <c r="F410" t="n">
-        <v>0.00940212</v>
+        <v>9.40212</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>4.245</v>
       </c>
       <c r="F411" t="n">
-        <v>0.009169200000000001</v>
+        <v>9.1692</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>4.17</v>
       </c>
       <c r="F412" t="n">
-        <v>0.009174000000000002</v>
+        <v>9.174000000000001</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00922284</v>
+        <v>9.22284</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F414" t="n">
-        <v>0.008943360000000001</v>
+        <v>8.94336</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>4.095</v>
       </c>
       <c r="F415" t="n">
-        <v>0.00902538</v>
+        <v>9.02538</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F416" t="n">
-        <v>0.009124200000000001</v>
+        <v>9.1242</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>4.125</v>
       </c>
       <c r="F417" t="n">
-        <v>0.009091500000000001</v>
+        <v>9.0915</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>4.155</v>
       </c>
       <c r="F418" t="n">
-        <v>0.009107760000000001</v>
+        <v>9.107760000000001</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>4.17</v>
       </c>
       <c r="F419" t="n">
-        <v>0.009224040000000001</v>
+        <v>9.22404</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>4.23</v>
       </c>
       <c r="F420" t="n">
-        <v>0.00906912</v>
+        <v>9.06912</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>4.215</v>
       </c>
       <c r="F421" t="n">
-        <v>0.00957648</v>
+        <v>9.57648</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0092511</v>
+        <v>9.251099999999999</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>4.29</v>
       </c>
       <c r="F423" t="n">
-        <v>0.009043320000000001</v>
+        <v>9.043320000000001</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>4.32</v>
       </c>
       <c r="F424" t="n">
-        <v>0.009365760000000002</v>
+        <v>9.365760000000002</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>4.32</v>
       </c>
       <c r="F425" t="n">
-        <v>0.009469440000000001</v>
+        <v>9.469440000000001</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>4.335</v>
       </c>
       <c r="F426" t="n">
-        <v>0.009502320000000002</v>
+        <v>9.502320000000001</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>4.335</v>
       </c>
       <c r="F427" t="n">
-        <v>0.009467640000000001</v>
+        <v>9.467640000000001</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>4.335</v>
       </c>
       <c r="F428" t="n">
-        <v>0.009432960000000001</v>
+        <v>9.432960000000001</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>4.32</v>
       </c>
       <c r="F429" t="n">
-        <v>0.00971136</v>
+        <v>9.711360000000001</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>4.32</v>
       </c>
       <c r="F430" t="n">
-        <v>0.00938304</v>
+        <v>9.383040000000001</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>4.29</v>
       </c>
       <c r="F431" t="n">
-        <v>0.009335040000000001</v>
+        <v>9.335040000000001</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>4.245</v>
       </c>
       <c r="F432" t="n">
-        <v>0.009389940000000001</v>
+        <v>9.389940000000001</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>4.215</v>
       </c>
       <c r="F433" t="n">
-        <v>0.00920556</v>
+        <v>9.20556</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>4.14</v>
       </c>
       <c r="F434" t="n">
-        <v>0.009108</v>
+        <v>9.108000000000001</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>4.065</v>
       </c>
       <c r="F435" t="n">
-        <v>0.00881292</v>
+        <v>8.81292</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>3.975</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0087609</v>
+        <v>8.760899999999999</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>3.885</v>
       </c>
       <c r="F437" t="n">
-        <v>0.00857808</v>
+        <v>8.57808</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>3.735</v>
       </c>
       <c r="F438" t="n">
-        <v>0.008351460000000002</v>
+        <v>8.351460000000001</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>3.66</v>
       </c>
       <c r="F439" t="n">
-        <v>0.00794952</v>
+        <v>7.94952</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>3.57</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00773976</v>
+        <v>7.73976</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>3.465</v>
       </c>
       <c r="F441" t="n">
-        <v>0.007595280000000001</v>
+        <v>7.595280000000001</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>3.375</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0070875</v>
+        <v>7.0875</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>3.285</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0071613</v>
+        <v>7.1613</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>3.24</v>
       </c>
       <c r="F444" t="n">
-        <v>0.007024320000000001</v>
+        <v>7.024320000000001</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>3.165</v>
       </c>
       <c r="F445" t="n">
-        <v>0.006773100000000001</v>
+        <v>6.7731</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>3.075</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0066789</v>
+        <v>6.6789</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>3.03</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0064842</v>
+        <v>6.4842</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="F448" t="n">
-        <v>0.006756</v>
+        <v>6.756</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>2.985</v>
       </c>
       <c r="F449" t="n">
-        <v>0.00651924</v>
+        <v>6.51924</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>2.925</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0064467</v>
+        <v>6.4467</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>2.91</v>
       </c>
       <c r="F451" t="n">
-        <v>0.0062856</v>
+        <v>6.2856</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>2.82</v>
       </c>
       <c r="F452" t="n">
-        <v>0.00628296</v>
+        <v>6.28296</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>2.775</v>
       </c>
       <c r="F453" t="n">
-        <v>0.006160500000000001</v>
+        <v>6.160500000000001</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>2.745</v>
       </c>
       <c r="F454" t="n">
-        <v>0.005885280000000001</v>
+        <v>5.885280000000002</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>2.64</v>
       </c>
       <c r="F455" t="n">
-        <v>0.00598752</v>
+        <v>5.98752</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>2.595</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0056052</v>
+        <v>5.6052</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>2.505</v>
       </c>
       <c r="F457" t="n">
-        <v>0.005571120000000001</v>
+        <v>5.571120000000001</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>2.43</v>
       </c>
       <c r="F458" t="n">
-        <v>0.00526824</v>
+        <v>5.26824</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>2.34</v>
       </c>
       <c r="F459" t="n">
-        <v>0.00521352</v>
+        <v>5.21352</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>2.28</v>
       </c>
       <c r="F460" t="n">
-        <v>0.00491568</v>
+        <v>4.91568</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>2.19</v>
       </c>
       <c r="F461" t="n">
-        <v>0.00487932</v>
+        <v>4.879320000000001</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>2.115</v>
       </c>
       <c r="F462" t="n">
-        <v>0.00475452</v>
+        <v>4.75452</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>2.055</v>
       </c>
       <c r="F463" t="n">
-        <v>0.0046443</v>
+        <v>4.644299999999999</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>1.995</v>
       </c>
       <c r="F464" t="n">
-        <v>0.00449274</v>
+        <v>4.49274</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>1.95</v>
       </c>
       <c r="F465" t="n">
-        <v>0.0042588</v>
+        <v>4.2588</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>1.89</v>
       </c>
       <c r="F466" t="n">
-        <v>0.00433188</v>
+        <v>4.33188</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>1.875</v>
       </c>
       <c r="F467" t="n">
-        <v>0.004095000000000001</v>
+        <v>4.095000000000002</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>1.83</v>
       </c>
       <c r="F468" t="n">
-        <v>0.004026</v>
+        <v>4.026</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>1.8</v>
       </c>
       <c r="F469" t="n">
-        <v>0.00396</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>1.77</v>
       </c>
       <c r="F470" t="n">
-        <v>0.003986040000000001</v>
+        <v>3.98604</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>1.725</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0039192</v>
+        <v>3.9192</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>1.725</v>
       </c>
       <c r="F472" t="n">
-        <v>0.0038571</v>
+        <v>3.8571</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>1.695</v>
       </c>
       <c r="F473" t="n">
-        <v>0.00387138</v>
+        <v>3.87138</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>1.665</v>
       </c>
       <c r="F474" t="n">
-        <v>0.003756240000000001</v>
+        <v>3.756240000000001</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>1.665</v>
       </c>
       <c r="F475" t="n">
-        <v>0.00370296</v>
+        <v>3.70296</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>1.635</v>
       </c>
       <c r="F476" t="n">
-        <v>0.003682020000000001</v>
+        <v>3.682020000000001</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>1.635</v>
       </c>
       <c r="F477" t="n">
-        <v>0.00371472</v>
+        <v>3.71472</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>1.62</v>
       </c>
       <c r="F478" t="n">
-        <v>0.00358344</v>
+        <v>3.58344</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>1.59</v>
       </c>
       <c r="F479" t="n">
-        <v>0.00380328</v>
+        <v>3.80328</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>1.62</v>
       </c>
       <c r="F480" t="n">
-        <v>0.00364824</v>
+        <v>3.64824</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>1.605</v>
       </c>
       <c r="F481" t="n">
-        <v>0.00354384</v>
+        <v>3.54384</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>1.59</v>
       </c>
       <c r="F482" t="n">
-        <v>0.00355524</v>
+        <v>3.55524</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>1.575</v>
       </c>
       <c r="F483" t="n">
-        <v>0.003534300000000001</v>
+        <v>3.534300000000001</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>1.545</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0034299</v>
+        <v>3.4299</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>1.515</v>
       </c>
       <c r="F485" t="n">
-        <v>0.00341178</v>
+        <v>3.41178</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>1.485</v>
       </c>
       <c r="F486" t="n">
-        <v>0.00336204</v>
+        <v>3.36204</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>1.44</v>
       </c>
       <c r="F487" t="n">
-        <v>0.00328896</v>
+        <v>3.28896</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>1.41</v>
       </c>
       <c r="F488" t="n">
-        <v>0.00319224</v>
+        <v>3.19224</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>1.365</v>
       </c>
       <c r="F489" t="n">
-        <v>0.003101280000000001</v>
+        <v>3.101280000000001</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>1.335</v>
       </c>
       <c r="F490" t="n">
-        <v>0.00295836</v>
+        <v>2.95836</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>1.305</v>
       </c>
       <c r="F491" t="n">
-        <v>0.00291276</v>
+        <v>2.91276</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>1.26</v>
       </c>
       <c r="F492" t="n">
-        <v>0.002817360000000001</v>
+        <v>2.817360000000001</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>1.215</v>
       </c>
       <c r="F493" t="n">
-        <v>0.00271674</v>
+        <v>2.71674</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>1.17</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0025974</v>
+        <v>2.5974</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>1.125</v>
       </c>
       <c r="F495" t="n">
-        <v>0.0025335</v>
+        <v>2.5335</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>1.08</v>
       </c>
       <c r="F496" t="n">
-        <v>0.00245808</v>
+        <v>2.45808</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>1.05</v>
       </c>
       <c r="F497" t="n">
-        <v>0.0023604</v>
+        <v>2.3604</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>1.02</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0022644</v>
+        <v>2.2644</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>0.99</v>
       </c>
       <c r="F499" t="n">
-        <v>0.00224928</v>
+        <v>2.24928</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>0.96</v>
       </c>
       <c r="F500" t="n">
-        <v>0.00218496</v>
+        <v>2.18496</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>0.96</v>
       </c>
       <c r="F501" t="n">
-        <v>0.00215808</v>
+        <v>2.15808</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F502" t="n">
-        <v>0.00209718</v>
+        <v>2.09718</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="F503" t="n">
-        <v>0.002016</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>0.87</v>
       </c>
       <c r="F504" t="n">
-        <v>0.0019836</v>
+        <v>1.9836</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>0.84</v>
       </c>
       <c r="F505" t="n">
-        <v>0.00191184</v>
+        <v>1.91184</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>0.825</v>
       </c>
       <c r="F506" t="n">
-        <v>0.0018645</v>
+        <v>1.8645</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F507" t="n">
-        <v>0.00179172</v>
+        <v>1.79172</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F508" t="n">
-        <v>0.001749</v>
+        <v>1.749</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F509" t="n">
-        <v>0.0017172</v>
+        <v>1.7172</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>0.75</v>
       </c>
       <c r="F510" t="n">
-        <v>0.001686</v>
+        <v>1.686</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>0.735</v>
       </c>
       <c r="F511" t="n">
-        <v>0.00162288</v>
+        <v>1.62288</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>0.705</v>
       </c>
       <c r="F512" t="n">
-        <v>0.00158484</v>
+        <v>1.58484</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>0.705</v>
       </c>
       <c r="F513" t="n">
-        <v>0.00155664</v>
+        <v>1.55664</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F514" t="n">
-        <v>0.001512</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>0.645</v>
       </c>
       <c r="F515" t="n">
-        <v>0.0014319</v>
+        <v>1.4319</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>0.6</v>
       </c>
       <c r="F516" t="n">
-        <v>0.001368</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>0.57</v>
       </c>
       <c r="F517" t="n">
-        <v>0.00130416</v>
+        <v>1.30416</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F518" t="n">
-        <v>0.00122544</v>
+        <v>1.22544</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>0.525</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0011655</v>
+        <v>1.1655</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>0.465</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00104346</v>
+        <v>1.04346</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>0.435</v>
       </c>
       <c r="F521" t="n">
-        <v>0.00099354</v>
+        <v>0.99354</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>0.42</v>
       </c>
       <c r="F522" t="n">
-        <v>0.0009441600000000001</v>
+        <v>0.9441600000000001</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>0.39</v>
       </c>
       <c r="F523" t="n">
-        <v>0.0008829600000000001</v>
+        <v>0.8829600000000001</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>0.36</v>
       </c>
       <c r="F524" t="n">
-        <v>0.0008150400000000001</v>
+        <v>0.8150400000000001</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>0.345</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0007797</v>
+        <v>0.7797000000000001</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>0.345</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0007866</v>
+        <v>0.7866000000000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>0.315</v>
       </c>
       <c r="F527" t="n">
-        <v>0.00070686</v>
+        <v>0.70686</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>0.3</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0006876000000000001</v>
+        <v>0.6876000000000001</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>0.285</v>
       </c>
       <c r="F529" t="n">
-        <v>0.00064866</v>
+        <v>0.64866</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>0.27</v>
       </c>
       <c r="F530" t="n">
-        <v>0.0006177600000000001</v>
+        <v>0.6177600000000001</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>0.24</v>
       </c>
       <c r="F531" t="n">
-        <v>0.0005606399999999999</v>
+        <v>0.5606399999999999</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>0.225</v>
       </c>
       <c r="F532" t="n">
-        <v>0.0005219999999999999</v>
+        <v>0.5219999999999999</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>0.195</v>
       </c>
       <c r="F533" t="n">
-        <v>0.00045474</v>
+        <v>0.45474</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>0.195</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0004461600000000001</v>
+        <v>0.4461600000000001</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>0.15</v>
       </c>
       <c r="F535" t="n">
-        <v>0.000357</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>0.075</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0001875</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>0.015</v>
       </c>
       <c r="F537" t="n">
-        <v>3.894e-05</v>
+        <v>0.03894</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>0.015</v>
       </c>
       <c r="F538" t="n">
-        <v>3.822e-05</v>
+        <v>0.03822</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>0.015</v>
       </c>
       <c r="F539" t="n">
-        <v>3.756e-05</v>
+        <v>0.03756</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>0.03</v>
       </c>
       <c r="F540" t="n">
-        <v>7.379999999999999e-05</v>
+        <v>0.07379999999999999</v>
       </c>
     </row>
     <row r="541">
@@ -11203,7 +11203,7 @@
         <v>0.015</v>
       </c>
       <c r="F542" t="n">
-        <v>3.557999999999999e-05</v>
+        <v>0.03557999999999999</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>0.015</v>
       </c>
       <c r="F543" t="n">
-        <v>3.467999999999999e-05</v>
+        <v>0.03468</v>
       </c>
     </row>
     <row r="544">
@@ -11263,7 +11263,7 @@
         <v>0.015</v>
       </c>
       <c r="F545" t="n">
-        <v>3.27e-05</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>0.015</v>
       </c>
       <c r="F546" t="n">
-        <v>3.174e-05</v>
+        <v>0.03174</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>0.015</v>
       </c>
       <c r="F547" t="n">
-        <v>3.09e-05</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>0.015</v>
       </c>
       <c r="F548" t="n">
-        <v>3.006e-05</v>
+        <v>0.03006</v>
       </c>
     </row>
     <row r="549">
